--- a/xls/equipStrongConfig.xlsx
+++ b/xls/equipStrongConfig.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="60" windowWidth="27765" windowHeight="13590"/>
+    <workbookView xWindow="14880" yWindow="60" windowWidth="27765" windowHeight="13590" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="@突破" sheetId="1" r:id="rId1"/>
+    <sheet name="@装备升级" sheetId="1" r:id="rId1"/>
     <sheet name="代对表=" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
@@ -99,78 +99,78 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>101001_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>101001_2</t>
+  </si>
+  <si>
+    <t>101001_3</t>
+  </si>
+  <si>
+    <t>101001_4</t>
+  </si>
+  <si>
+    <t>101001_5</t>
+  </si>
+  <si>
+    <t>101001_6</t>
+  </si>
+  <si>
+    <t>101001_7</t>
+  </si>
+  <si>
+    <t>101001_8</t>
+  </si>
+  <si>
+    <t>101001_9</t>
+  </si>
+  <si>
+    <t>101001_10</t>
+  </si>
+  <si>
+    <t>101001_11</t>
+  </si>
+  <si>
+    <t>101001_12</t>
+  </si>
+  <si>
+    <t>101001_13</t>
+  </si>
+  <si>
+    <t>101001_14</t>
+  </si>
+  <si>
+    <t>101001_15</t>
+  </si>
+  <si>
+    <t>101001_16</t>
+  </si>
+  <si>
+    <t>101001_17</t>
+  </si>
+  <si>
+    <t>101001_18</t>
+  </si>
+  <si>
+    <t>101001_19</t>
+  </si>
+  <si>
+    <t>101001_20</t>
+  </si>
+  <si>
+    <t>101001_21</t>
+  </si>
+  <si>
+    <t>101001_22</t>
+  </si>
+  <si>
     <t>id[.!][funcStr]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>101001_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>101001_2</t>
-  </si>
-  <si>
-    <t>101001_3</t>
-  </si>
-  <si>
-    <t>101001_4</t>
-  </si>
-  <si>
-    <t>101001_5</t>
-  </si>
-  <si>
-    <t>101001_6</t>
-  </si>
-  <si>
-    <t>101001_7</t>
-  </si>
-  <si>
-    <t>101001_8</t>
-  </si>
-  <si>
-    <t>101001_9</t>
-  </si>
-  <si>
-    <t>101001_10</t>
-  </si>
-  <si>
-    <t>101001_11</t>
-  </si>
-  <si>
-    <t>101001_12</t>
-  </si>
-  <si>
-    <t>101001_13</t>
-  </si>
-  <si>
-    <t>101001_14</t>
-  </si>
-  <si>
-    <t>101001_15</t>
-  </si>
-  <si>
-    <t>101001_16</t>
-  </si>
-  <si>
-    <t>101001_17</t>
-  </si>
-  <si>
-    <t>101001_18</t>
-  </si>
-  <si>
-    <t>101001_19</t>
-  </si>
-  <si>
-    <t>101001_20</t>
-  </si>
-  <si>
-    <t>101001_21</t>
-  </si>
-  <si>
-    <t>101001_22</t>
-  </si>
-  <si>
-    <t>装备升级:equipStrongConfig</t>
+    <t>装备升级:EquipStrongConfig</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -567,7 +567,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>300</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>400</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>500</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>600</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>700</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>800</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>900</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>1100</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>1200</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>1300</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>1400</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>1500</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>1600</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>1700</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>1800</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>1900</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>2000</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>2100</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1416,13 +1416,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>

--- a/xls/equipStrongConfig.xlsx
+++ b/xls/equipStrongConfig.xlsx
@@ -22,9 +22,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>pass[.][funcInt]</t>
-  </si>
-  <si>
     <t>trick[.][funcInt]</t>
   </si>
   <si>
@@ -1669,6 +1666,10 @@
   </si>
   <si>
     <t>5_131</t>
+  </si>
+  <si>
+    <t>passBall[.][funcInt]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2080,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A348" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2101,34 +2102,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2136,36 +2137,36 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2197,7 +2198,7 @@
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4">
         <v>45</v>
@@ -2229,7 +2230,7 @@
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4">
         <v>46</v>
@@ -2261,7 +2262,7 @@
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4">
         <v>47</v>
@@ -2293,7 +2294,7 @@
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4">
         <v>48</v>
@@ -2325,7 +2326,7 @@
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4">
         <v>49</v>
@@ -2357,7 +2358,7 @@
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4">
         <v>50</v>
@@ -2389,7 +2390,7 @@
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4">
         <v>51</v>
@@ -2421,7 +2422,7 @@
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>52</v>
@@ -2453,7 +2454,7 @@
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>53</v>
@@ -2485,7 +2486,7 @@
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>54</v>
@@ -2517,7 +2518,7 @@
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="4">
         <v>56</v>
@@ -2549,7 +2550,7 @@
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4">
         <v>58</v>
@@ -2581,7 +2582,7 @@
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4">
         <v>60</v>
@@ -2613,7 +2614,7 @@
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="4">
         <v>62</v>
@@ -2645,7 +2646,7 @@
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4">
         <v>64</v>
@@ -2677,7 +2678,7 @@
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4">
         <v>66</v>
@@ -2709,7 +2710,7 @@
     </row>
     <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="4">
         <v>68</v>
@@ -2741,7 +2742,7 @@
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="4">
         <v>70</v>
@@ -2773,7 +2774,7 @@
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4">
         <v>72</v>
@@ -2805,7 +2806,7 @@
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="4">
         <v>74</v>
@@ -2837,7 +2838,7 @@
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="4">
         <v>76</v>
@@ -2869,7 +2870,7 @@
     </row>
     <row r="25" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="5">
         <v>78</v>
@@ -2901,7 +2902,7 @@
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="5">
         <v>80</v>
@@ -2933,7 +2934,7 @@
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="5">
         <v>82</v>
@@ -2965,7 +2966,7 @@
     </row>
     <row r="28" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="5">
         <v>84</v>
@@ -2997,7 +2998,7 @@
     </row>
     <row r="29" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="5">
         <v>86</v>
@@ -3029,7 +3030,7 @@
     </row>
     <row r="30" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="5">
         <v>88</v>
@@ -3061,7 +3062,7 @@
     </row>
     <row r="31" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="5">
         <v>90</v>
@@ -3093,7 +3094,7 @@
     </row>
     <row r="32" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="5">
         <v>92</v>
@@ -3125,7 +3126,7 @@
     </row>
     <row r="33" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="5">
         <v>94</v>
@@ -3157,7 +3158,7 @@
     </row>
     <row r="34" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="5">
         <v>97</v>
@@ -3189,7 +3190,7 @@
     </row>
     <row r="35" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="5">
         <v>100</v>
@@ -3221,7 +3222,7 @@
     </row>
     <row r="36" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="5">
         <v>103</v>
@@ -3253,7 +3254,7 @@
     </row>
     <row r="37" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="5">
         <v>106</v>
@@ -3285,7 +3286,7 @@
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="5">
         <v>109</v>
@@ -3317,7 +3318,7 @@
     </row>
     <row r="39" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="5">
         <v>112</v>
@@ -3349,7 +3350,7 @@
     </row>
     <row r="40" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="5">
         <v>115</v>
@@ -3381,7 +3382,7 @@
     </row>
     <row r="41" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="5">
         <v>118</v>
@@ -3413,7 +3414,7 @@
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="5">
         <v>121</v>
@@ -3445,7 +3446,7 @@
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="5">
         <v>124</v>
@@ -3477,7 +3478,7 @@
     </row>
     <row r="44" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" s="5">
         <v>128</v>
@@ -3509,7 +3510,7 @@
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="5">
         <v>132</v>
@@ -3541,7 +3542,7 @@
     </row>
     <row r="46" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="5">
         <v>136</v>
@@ -3573,7 +3574,7 @@
     </row>
     <row r="47" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" s="5">
         <v>140</v>
@@ -3605,7 +3606,7 @@
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" s="5">
         <v>144</v>
@@ -3637,7 +3638,7 @@
     </row>
     <row r="49" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" s="5">
         <v>148</v>
@@ -3669,7 +3670,7 @@
     </row>
     <row r="50" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="5">
         <v>152</v>
@@ -3701,7 +3702,7 @@
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" s="5">
         <v>156</v>
@@ -3733,7 +3734,7 @@
     </row>
     <row r="52" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" s="5">
         <v>160</v>
@@ -3765,7 +3766,7 @@
     </row>
     <row r="53" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B53" s="5">
         <v>164</v>
@@ -3797,7 +3798,7 @@
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" s="5">
         <v>168</v>
@@ -3829,7 +3830,7 @@
     </row>
     <row r="55" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B55" s="5">
         <v>172</v>
@@ -3861,7 +3862,7 @@
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="5">
         <v>176</v>
@@ -3893,7 +3894,7 @@
     </row>
     <row r="57" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" s="5">
         <v>180</v>
@@ -3925,7 +3926,7 @@
     </row>
     <row r="58" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" s="5">
         <v>184</v>
@@ -3957,7 +3958,7 @@
     </row>
     <row r="59" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59" s="5">
         <v>188</v>
@@ -3989,7 +3990,7 @@
     </row>
     <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B60" s="5">
         <v>192</v>
@@ -4021,7 +4022,7 @@
     </row>
     <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B61" s="5">
         <v>196</v>
@@ -4053,7 +4054,7 @@
     </row>
     <row r="62" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B62" s="5">
         <v>200</v>
@@ -4085,7 +4086,7 @@
     </row>
     <row r="63" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" s="5">
         <v>204</v>
@@ -4117,7 +4118,7 @@
     </row>
     <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B64" s="5">
         <v>209</v>
@@ -4149,7 +4150,7 @@
     </row>
     <row r="65" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B65" s="5">
         <v>214</v>
@@ -4181,7 +4182,7 @@
     </row>
     <row r="66" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B66" s="5">
         <v>219</v>
@@ -4213,7 +4214,7 @@
     </row>
     <row r="67" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B67" s="5">
         <v>224</v>
@@ -4245,7 +4246,7 @@
     </row>
     <row r="68" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B68" s="5">
         <v>229</v>
@@ -4277,7 +4278,7 @@
     </row>
     <row r="69" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B69" s="5">
         <v>234</v>
@@ -4309,7 +4310,7 @@
     </row>
     <row r="70" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B70" s="5">
         <v>239</v>
@@ -4341,7 +4342,7 @@
     </row>
     <row r="71" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B71" s="5">
         <v>244</v>
@@ -4373,7 +4374,7 @@
     </row>
     <row r="72" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B72" s="5">
         <v>249</v>
@@ -4405,7 +4406,7 @@
     </row>
     <row r="73" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B73" s="5">
         <v>254</v>
@@ -4437,7 +4438,7 @@
     </row>
     <row r="74" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B74" s="5">
         <v>260</v>
@@ -4469,7 +4470,7 @@
     </row>
     <row r="75" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B75" s="5">
         <v>266</v>
@@ -4501,7 +4502,7 @@
     </row>
     <row r="76" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B76" s="5">
         <v>272</v>
@@ -4533,7 +4534,7 @@
     </row>
     <row r="77" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" s="5">
         <v>278</v>
@@ -4565,7 +4566,7 @@
     </row>
     <row r="78" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B78" s="5">
         <v>284</v>
@@ -4597,7 +4598,7 @@
     </row>
     <row r="79" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B79" s="5">
         <v>290</v>
@@ -4629,7 +4630,7 @@
     </row>
     <row r="80" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B80" s="5">
         <v>296</v>
@@ -4661,7 +4662,7 @@
     </row>
     <row r="81" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B81" s="5">
         <v>302</v>
@@ -4693,7 +4694,7 @@
     </row>
     <row r="82" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B82" s="5">
         <v>308</v>
@@ -4725,7 +4726,7 @@
     </row>
     <row r="83" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B83" s="5">
         <v>314</v>
@@ -4757,7 +4758,7 @@
     </row>
     <row r="84" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B84" s="5">
         <v>322</v>
@@ -4789,7 +4790,7 @@
     </row>
     <row r="85" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B85" s="5">
         <v>330</v>
@@ -4821,7 +4822,7 @@
     </row>
     <row r="86" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B86" s="5">
         <v>338</v>
@@ -4853,7 +4854,7 @@
     </row>
     <row r="87" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B87" s="5">
         <v>346</v>
@@ -4885,7 +4886,7 @@
     </row>
     <row r="88" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B88" s="5">
         <v>354</v>
@@ -4917,7 +4918,7 @@
     </row>
     <row r="89" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B89" s="5">
         <v>362</v>
@@ -4949,7 +4950,7 @@
     </row>
     <row r="90" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B90" s="5">
         <v>370</v>
@@ -4981,7 +4982,7 @@
     </row>
     <row r="91" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B91" s="5">
         <v>378</v>
@@ -5013,7 +5014,7 @@
     </row>
     <row r="92" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B92" s="5">
         <v>386</v>
@@ -5045,7 +5046,7 @@
     </row>
     <row r="93" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B93" s="5">
         <v>394</v>
@@ -5077,7 +5078,7 @@
     </row>
     <row r="94" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B94" s="5">
         <v>403</v>
@@ -5109,7 +5110,7 @@
     </row>
     <row r="95" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B95" s="5">
         <v>412</v>
@@ -5141,7 +5142,7 @@
     </row>
     <row r="96" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B96" s="5">
         <v>421</v>
@@ -5173,7 +5174,7 @@
     </row>
     <row r="97" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B97" s="5">
         <v>430</v>
@@ -5205,7 +5206,7 @@
     </row>
     <row r="98" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B98" s="5">
         <v>439</v>
@@ -5237,7 +5238,7 @@
     </row>
     <row r="99" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B99" s="5">
         <v>448</v>
@@ -5269,7 +5270,7 @@
     </row>
     <row r="100" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B100" s="5">
         <v>457</v>
@@ -5301,7 +5302,7 @@
     </row>
     <row r="101" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B101" s="5">
         <v>466</v>
@@ -5333,7 +5334,7 @@
     </row>
     <row r="102" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B102" s="5">
         <v>475</v>
@@ -5365,7 +5366,7 @@
     </row>
     <row r="103" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B103" s="5">
         <v>484</v>
@@ -5397,7 +5398,7 @@
     </row>
     <row r="104" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B104" s="5">
         <v>496</v>
@@ -5429,7 +5430,7 @@
     </row>
     <row r="105" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B105" s="5">
         <v>508</v>
@@ -5461,7 +5462,7 @@
     </row>
     <row r="106" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B106" s="5">
         <v>520</v>
@@ -5493,7 +5494,7 @@
     </row>
     <row r="107" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B107" s="5">
         <v>532</v>
@@ -5525,7 +5526,7 @@
     </row>
     <row r="108" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B108" s="5">
         <v>544</v>
@@ -5557,7 +5558,7 @@
     </row>
     <row r="109" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B109" s="5">
         <v>556</v>
@@ -5589,7 +5590,7 @@
     </row>
     <row r="110" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B110" s="5">
         <v>568</v>
@@ -5621,7 +5622,7 @@
     </row>
     <row r="111" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B111" s="5">
         <v>580</v>
@@ -5653,7 +5654,7 @@
     </row>
     <row r="112" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B112" s="5">
         <v>592</v>
@@ -5685,7 +5686,7 @@
     </row>
     <row r="113" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B113" s="5">
         <v>604</v>
@@ -5717,7 +5718,7 @@
     </row>
     <row r="114" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B114" s="5">
         <v>620</v>
@@ -5749,7 +5750,7 @@
     </row>
     <row r="115" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B115" s="5">
         <v>636</v>
@@ -5781,7 +5782,7 @@
     </row>
     <row r="116" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B116" s="5">
         <v>652</v>
@@ -5813,7 +5814,7 @@
     </row>
     <row r="117" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B117" s="5">
         <v>668</v>
@@ -5845,7 +5846,7 @@
     </row>
     <row r="118" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B118" s="5">
         <v>684</v>
@@ -5877,7 +5878,7 @@
     </row>
     <row r="119" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B119" s="5">
         <v>700</v>
@@ -5909,7 +5910,7 @@
     </row>
     <row r="120" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B120" s="5">
         <v>716</v>
@@ -5941,7 +5942,7 @@
     </row>
     <row r="121" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B121" s="5">
         <v>732</v>
@@ -5973,7 +5974,7 @@
     </row>
     <row r="122" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B122" s="5">
         <v>748</v>
@@ -6005,7 +6006,7 @@
     </row>
     <row r="123" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B123" s="5">
         <v>764</v>
@@ -6037,7 +6038,7 @@
     </row>
     <row r="124" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B124" s="5">
         <v>780</v>
@@ -6069,7 +6070,7 @@
     </row>
     <row r="125" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B125" s="5">
         <v>796</v>
@@ -6101,7 +6102,7 @@
     </row>
     <row r="126" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B126" s="5">
         <v>812</v>
@@ -6133,7 +6134,7 @@
     </row>
     <row r="127" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B127" s="5">
         <v>828</v>
@@ -6165,7 +6166,7 @@
     </row>
     <row r="128" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B128" s="5">
         <v>844</v>
@@ -6197,7 +6198,7 @@
     </row>
     <row r="129" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B129" s="5">
         <v>860</v>
@@ -6229,7 +6230,7 @@
     </row>
     <row r="130" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B130" s="5">
         <v>876</v>
@@ -6261,7 +6262,7 @@
     </row>
     <row r="131" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B131" s="5">
         <v>892</v>
@@ -6293,7 +6294,7 @@
     </row>
     <row r="132" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B132" s="5">
         <v>908</v>
@@ -6325,7 +6326,7 @@
     </row>
     <row r="133" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B133" s="5">
         <v>924</v>
@@ -6357,7 +6358,7 @@
     </row>
     <row r="134" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B134" s="4">
         <v>0</v>
@@ -6389,7 +6390,7 @@
     </row>
     <row r="135" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B135" s="4">
         <v>68</v>
@@ -6421,7 +6422,7 @@
     </row>
     <row r="136" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B136" s="4">
         <v>70</v>
@@ -6453,7 +6454,7 @@
     </row>
     <row r="137" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B137" s="4">
         <v>72</v>
@@ -6485,7 +6486,7 @@
     </row>
     <row r="138" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B138" s="4">
         <v>74</v>
@@ -6517,7 +6518,7 @@
     </row>
     <row r="139" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B139" s="4">
         <v>76</v>
@@ -6549,7 +6550,7 @@
     </row>
     <row r="140" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B140" s="4">
         <v>78</v>
@@ -6581,7 +6582,7 @@
     </row>
     <row r="141" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B141" s="4">
         <v>80</v>
@@ -6613,7 +6614,7 @@
     </row>
     <row r="142" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B142" s="4">
         <v>82</v>
@@ -6645,7 +6646,7 @@
     </row>
     <row r="143" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B143" s="4">
         <v>84</v>
@@ -6677,7 +6678,7 @@
     </row>
     <row r="144" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B144" s="4">
         <v>86</v>
@@ -6709,7 +6710,7 @@
     </row>
     <row r="145" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B145" s="4">
         <v>89</v>
@@ -6741,7 +6742,7 @@
     </row>
     <row r="146" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B146" s="4">
         <v>92</v>
@@ -6773,7 +6774,7 @@
     </row>
     <row r="147" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B147" s="4">
         <v>95</v>
@@ -6805,7 +6806,7 @@
     </row>
     <row r="148" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B148" s="4">
         <v>98</v>
@@ -6837,7 +6838,7 @@
     </row>
     <row r="149" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B149" s="4">
         <v>101</v>
@@ -6869,7 +6870,7 @@
     </row>
     <row r="150" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B150" s="4">
         <v>104</v>
@@ -6901,7 +6902,7 @@
     </row>
     <row r="151" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B151" s="4">
         <v>107</v>
@@ -6933,7 +6934,7 @@
     </row>
     <row r="152" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B152" s="4">
         <v>110</v>
@@ -6965,7 +6966,7 @@
     </row>
     <row r="153" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B153" s="4">
         <v>113</v>
@@ -6997,7 +6998,7 @@
     </row>
     <row r="154" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B154" s="4">
         <v>116</v>
@@ -7029,7 +7030,7 @@
     </row>
     <row r="155" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B155" s="4">
         <v>119</v>
@@ -7061,7 +7062,7 @@
     </row>
     <row r="156" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B156" s="5">
         <v>122</v>
@@ -7093,7 +7094,7 @@
     </row>
     <row r="157" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B157" s="5">
         <v>125</v>
@@ -7125,7 +7126,7 @@
     </row>
     <row r="158" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B158" s="5">
         <v>128</v>
@@ -7157,7 +7158,7 @@
     </row>
     <row r="159" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B159" s="5">
         <v>131</v>
@@ -7189,7 +7190,7 @@
     </row>
     <row r="160" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B160" s="5">
         <v>134</v>
@@ -7221,7 +7222,7 @@
     </row>
     <row r="161" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B161" s="5">
         <v>137</v>
@@ -7253,7 +7254,7 @@
     </row>
     <row r="162" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B162" s="5">
         <v>140</v>
@@ -7285,7 +7286,7 @@
     </row>
     <row r="163" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B163" s="5">
         <v>143</v>
@@ -7317,7 +7318,7 @@
     </row>
     <row r="164" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B164" s="5">
         <v>146</v>
@@ -7349,7 +7350,7 @@
     </row>
     <row r="165" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B165" s="5">
         <v>150</v>
@@ -7381,7 +7382,7 @@
     </row>
     <row r="166" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B166" s="5">
         <v>154</v>
@@ -7413,7 +7414,7 @@
     </row>
     <row r="167" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B167" s="5">
         <v>158</v>
@@ -7445,7 +7446,7 @@
     </row>
     <row r="168" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B168" s="5">
         <v>162</v>
@@ -7477,7 +7478,7 @@
     </row>
     <row r="169" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B169" s="5">
         <v>166</v>
@@ -7509,7 +7510,7 @@
     </row>
     <row r="170" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B170" s="5">
         <v>170</v>
@@ -7541,7 +7542,7 @@
     </row>
     <row r="171" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B171" s="5">
         <v>174</v>
@@ -7573,7 +7574,7 @@
     </row>
     <row r="172" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B172" s="5">
         <v>178</v>
@@ -7605,7 +7606,7 @@
     </row>
     <row r="173" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B173" s="5">
         <v>182</v>
@@ -7637,7 +7638,7 @@
     </row>
     <row r="174" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B174" s="5">
         <v>186</v>
@@ -7669,7 +7670,7 @@
     </row>
     <row r="175" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B175" s="5">
         <v>192</v>
@@ -7701,7 +7702,7 @@
     </row>
     <row r="176" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B176" s="5">
         <v>198</v>
@@ -7733,7 +7734,7 @@
     </row>
     <row r="177" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B177" s="5">
         <v>204</v>
@@ -7765,7 +7766,7 @@
     </row>
     <row r="178" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B178" s="5">
         <v>210</v>
@@ -7797,7 +7798,7 @@
     </row>
     <row r="179" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B179" s="5">
         <v>216</v>
@@ -7829,7 +7830,7 @@
     </row>
     <row r="180" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B180" s="5">
         <v>222</v>
@@ -7861,7 +7862,7 @@
     </row>
     <row r="181" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B181" s="5">
         <v>228</v>
@@ -7893,7 +7894,7 @@
     </row>
     <row r="182" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B182" s="5">
         <v>234</v>
@@ -7925,7 +7926,7 @@
     </row>
     <row r="183" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B183" s="5">
         <v>240</v>
@@ -7957,7 +7958,7 @@
     </row>
     <row r="184" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B184" s="5">
         <v>246</v>
@@ -7989,7 +7990,7 @@
     </row>
     <row r="185" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B185" s="5">
         <v>253</v>
@@ -8021,7 +8022,7 @@
     </row>
     <row r="186" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B186" s="5">
         <v>260</v>
@@ -8053,7 +8054,7 @@
     </row>
     <row r="187" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B187" s="5">
         <v>267</v>
@@ -8085,7 +8086,7 @@
     </row>
     <row r="188" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B188" s="5">
         <v>274</v>
@@ -8117,7 +8118,7 @@
     </row>
     <row r="189" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B189" s="5">
         <v>281</v>
@@ -8149,7 +8150,7 @@
     </row>
     <row r="190" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B190" s="5">
         <v>288</v>
@@ -8181,7 +8182,7 @@
     </row>
     <row r="191" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B191" s="5">
         <v>295</v>
@@ -8213,7 +8214,7 @@
     </row>
     <row r="192" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B192" s="5">
         <v>302</v>
@@ -8245,7 +8246,7 @@
     </row>
     <row r="193" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B193" s="5">
         <v>309</v>
@@ -8277,7 +8278,7 @@
     </row>
     <row r="194" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B194" s="5">
         <v>316</v>
@@ -8309,7 +8310,7 @@
     </row>
     <row r="195" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B195" s="5">
         <v>324</v>
@@ -8341,7 +8342,7 @@
     </row>
     <row r="196" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B196" s="5">
         <v>332</v>
@@ -8373,7 +8374,7 @@
     </row>
     <row r="197" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B197" s="5">
         <v>340</v>
@@ -8405,7 +8406,7 @@
     </row>
     <row r="198" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B198" s="5">
         <v>348</v>
@@ -8437,7 +8438,7 @@
     </row>
     <row r="199" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B199" s="5">
         <v>356</v>
@@ -8469,7 +8470,7 @@
     </row>
     <row r="200" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B200" s="5">
         <v>364</v>
@@ -8501,7 +8502,7 @@
     </row>
     <row r="201" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B201" s="5">
         <v>372</v>
@@ -8533,7 +8534,7 @@
     </row>
     <row r="202" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B202" s="5">
         <v>380</v>
@@ -8565,7 +8566,7 @@
     </row>
     <row r="203" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B203" s="5">
         <v>388</v>
@@ -8597,7 +8598,7 @@
     </row>
     <row r="204" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B204" s="5">
         <v>396</v>
@@ -8629,7 +8630,7 @@
     </row>
     <row r="205" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B205" s="5">
         <v>405</v>
@@ -8661,7 +8662,7 @@
     </row>
     <row r="206" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B206" s="5">
         <v>414</v>
@@ -8693,7 +8694,7 @@
     </row>
     <row r="207" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B207" s="5">
         <v>423</v>
@@ -8725,7 +8726,7 @@
     </row>
     <row r="208" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B208" s="5">
         <v>432</v>
@@ -8757,7 +8758,7 @@
     </row>
     <row r="209" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B209" s="5">
         <v>441</v>
@@ -8789,7 +8790,7 @@
     </row>
     <row r="210" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B210" s="5">
         <v>450</v>
@@ -8821,7 +8822,7 @@
     </row>
     <row r="211" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B211" s="5">
         <v>459</v>
@@ -8853,7 +8854,7 @@
     </row>
     <row r="212" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B212" s="5">
         <v>468</v>
@@ -8885,7 +8886,7 @@
     </row>
     <row r="213" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B213" s="5">
         <v>477</v>
@@ -8917,7 +8918,7 @@
     </row>
     <row r="214" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B214" s="5">
         <v>486</v>
@@ -8949,7 +8950,7 @@
     </row>
     <row r="215" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B215" s="5">
         <v>498</v>
@@ -8981,7 +8982,7 @@
     </row>
     <row r="216" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B216" s="5">
         <v>510</v>
@@ -9013,7 +9014,7 @@
     </row>
     <row r="217" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B217" s="5">
         <v>522</v>
@@ -9045,7 +9046,7 @@
     </row>
     <row r="218" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B218" s="5">
         <v>534</v>
@@ -9077,7 +9078,7 @@
     </row>
     <row r="219" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B219" s="5">
         <v>546</v>
@@ -9109,7 +9110,7 @@
     </row>
     <row r="220" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B220" s="5">
         <v>558</v>
@@ -9141,7 +9142,7 @@
     </row>
     <row r="221" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B221" s="5">
         <v>570</v>
@@ -9173,7 +9174,7 @@
     </row>
     <row r="222" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B222" s="5">
         <v>582</v>
@@ -9205,7 +9206,7 @@
     </row>
     <row r="223" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B223" s="5">
         <v>594</v>
@@ -9237,7 +9238,7 @@
     </row>
     <row r="224" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B224" s="5">
         <v>606</v>
@@ -9269,7 +9270,7 @@
     </row>
     <row r="225" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B225" s="5">
         <v>620</v>
@@ -9301,7 +9302,7 @@
     </row>
     <row r="226" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B226" s="5">
         <v>634</v>
@@ -9333,7 +9334,7 @@
     </row>
     <row r="227" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B227" s="5">
         <v>648</v>
@@ -9365,7 +9366,7 @@
     </row>
     <row r="228" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B228" s="5">
         <v>662</v>
@@ -9397,7 +9398,7 @@
     </row>
     <row r="229" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B229" s="5">
         <v>676</v>
@@ -9429,7 +9430,7 @@
     </row>
     <row r="230" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B230" s="5">
         <v>690</v>
@@ -9461,7 +9462,7 @@
     </row>
     <row r="231" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B231" s="5">
         <v>704</v>
@@ -9493,7 +9494,7 @@
     </row>
     <row r="232" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B232" s="5">
         <v>718</v>
@@ -9525,7 +9526,7 @@
     </row>
     <row r="233" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B233" s="5">
         <v>732</v>
@@ -9557,7 +9558,7 @@
     </row>
     <row r="234" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B234" s="5">
         <v>746</v>
@@ -9589,7 +9590,7 @@
     </row>
     <row r="235" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B235" s="5">
         <v>764</v>
@@ -9621,7 +9622,7 @@
     </row>
     <row r="236" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B236" s="5">
         <v>782</v>
@@ -9653,7 +9654,7 @@
     </row>
     <row r="237" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B237" s="5">
         <v>800</v>
@@ -9685,7 +9686,7 @@
     </row>
     <row r="238" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B238" s="5">
         <v>818</v>
@@ -9717,7 +9718,7 @@
     </row>
     <row r="239" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B239" s="5">
         <v>836</v>
@@ -9749,7 +9750,7 @@
     </row>
     <row r="240" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B240" s="5">
         <v>854</v>
@@ -9781,7 +9782,7 @@
     </row>
     <row r="241" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B241" s="5">
         <v>872</v>
@@ -9813,7 +9814,7 @@
     </row>
     <row r="242" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B242" s="5">
         <v>890</v>
@@ -9845,7 +9846,7 @@
     </row>
     <row r="243" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B243" s="5">
         <v>908</v>
@@ -9877,7 +9878,7 @@
     </row>
     <row r="244" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B244" s="5">
         <v>926</v>
@@ -9909,7 +9910,7 @@
     </row>
     <row r="245" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B245" s="5">
         <v>950</v>
@@ -9941,7 +9942,7 @@
     </row>
     <row r="246" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B246" s="5">
         <v>974</v>
@@ -9973,7 +9974,7 @@
     </row>
     <row r="247" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B247" s="5">
         <v>998</v>
@@ -10005,7 +10006,7 @@
     </row>
     <row r="248" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B248" s="5">
         <v>1022</v>
@@ -10037,7 +10038,7 @@
     </row>
     <row r="249" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B249" s="5">
         <v>1046</v>
@@ -10069,7 +10070,7 @@
     </row>
     <row r="250" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B250" s="5">
         <v>1070</v>
@@ -10101,7 +10102,7 @@
     </row>
     <row r="251" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B251" s="5">
         <v>1094</v>
@@ -10133,7 +10134,7 @@
     </row>
     <row r="252" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B252" s="5">
         <v>1118</v>
@@ -10165,7 +10166,7 @@
     </row>
     <row r="253" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B253" s="5">
         <v>1142</v>
@@ -10197,7 +10198,7 @@
     </row>
     <row r="254" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B254" s="5">
         <v>1166</v>
@@ -10229,7 +10230,7 @@
     </row>
     <row r="255" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B255" s="5">
         <v>1190</v>
@@ -10261,7 +10262,7 @@
     </row>
     <row r="256" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B256" s="5">
         <v>1214</v>
@@ -10293,7 +10294,7 @@
     </row>
     <row r="257" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B257" s="5">
         <v>1238</v>
@@ -10325,7 +10326,7 @@
     </row>
     <row r="258" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B258" s="5">
         <v>1262</v>
@@ -10357,7 +10358,7 @@
     </row>
     <row r="259" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B259" s="5">
         <v>1286</v>
@@ -10389,7 +10390,7 @@
     </row>
     <row r="260" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B260" s="5">
         <v>1310</v>
@@ -10421,7 +10422,7 @@
     </row>
     <row r="261" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B261" s="5">
         <v>1334</v>
@@ -10453,7 +10454,7 @@
     </row>
     <row r="262" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B262" s="5">
         <v>1358</v>
@@ -10485,7 +10486,7 @@
     </row>
     <row r="263" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B263" s="5">
         <v>1382</v>
@@ -10517,7 +10518,7 @@
     </row>
     <row r="264" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B264" s="5">
         <v>1406</v>
@@ -10549,7 +10550,7 @@
     </row>
     <row r="265" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B265" s="4">
         <v>0</v>
@@ -10581,7 +10582,7 @@
     </row>
     <row r="266" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B266" s="4">
         <v>91</v>
@@ -10613,7 +10614,7 @@
     </row>
     <row r="267" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B267" s="4">
         <v>94</v>
@@ -10645,7 +10646,7 @@
     </row>
     <row r="268" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B268" s="4">
         <v>97</v>
@@ -10677,7 +10678,7 @@
     </row>
     <row r="269" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B269" s="4">
         <v>100</v>
@@ -10709,7 +10710,7 @@
     </row>
     <row r="270" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B270" s="4">
         <v>103</v>
@@ -10741,7 +10742,7 @@
     </row>
     <row r="271" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B271" s="4">
         <v>106</v>
@@ -10773,7 +10774,7 @@
     </row>
     <row r="272" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B272" s="4">
         <v>109</v>
@@ -10805,7 +10806,7 @@
     </row>
     <row r="273" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B273" s="4">
         <v>112</v>
@@ -10837,7 +10838,7 @@
     </row>
     <row r="274" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B274" s="4">
         <v>115</v>
@@ -10869,7 +10870,7 @@
     </row>
     <row r="275" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B275" s="4">
         <v>118</v>
@@ -10901,7 +10902,7 @@
     </row>
     <row r="276" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B276" s="4">
         <v>122</v>
@@ -10933,7 +10934,7 @@
     </row>
     <row r="277" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B277" s="4">
         <v>126</v>
@@ -10965,7 +10966,7 @@
     </row>
     <row r="278" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B278" s="4">
         <v>130</v>
@@ -10997,7 +10998,7 @@
     </row>
     <row r="279" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B279" s="4">
         <v>134</v>
@@ -11029,7 +11030,7 @@
     </row>
     <row r="280" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B280" s="4">
         <v>138</v>
@@ -11061,7 +11062,7 @@
     </row>
     <row r="281" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B281" s="4">
         <v>142</v>
@@ -11093,7 +11094,7 @@
     </row>
     <row r="282" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B282" s="4">
         <v>146</v>
@@ -11125,7 +11126,7 @@
     </row>
     <row r="283" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B283" s="4">
         <v>150</v>
@@ -11157,7 +11158,7 @@
     </row>
     <row r="284" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B284" s="4">
         <v>154</v>
@@ -11189,7 +11190,7 @@
     </row>
     <row r="285" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B285" s="4">
         <v>158</v>
@@ -11221,7 +11222,7 @@
     </row>
     <row r="286" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B286" s="4">
         <v>162</v>
@@ -11253,7 +11254,7 @@
     </row>
     <row r="287" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B287" s="5">
         <v>166</v>
@@ -11285,7 +11286,7 @@
     </row>
     <row r="288" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B288" s="5">
         <v>170</v>
@@ -11317,7 +11318,7 @@
     </row>
     <row r="289" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B289" s="5">
         <v>174</v>
@@ -11349,7 +11350,7 @@
     </row>
     <row r="290" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B290" s="5">
         <v>178</v>
@@ -11381,7 +11382,7 @@
     </row>
     <row r="291" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B291" s="5">
         <v>182</v>
@@ -11413,7 +11414,7 @@
     </row>
     <row r="292" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B292" s="5">
         <v>186</v>
@@ -11445,7 +11446,7 @@
     </row>
     <row r="293" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B293" s="5">
         <v>190</v>
@@ -11477,7 +11478,7 @@
     </row>
     <row r="294" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B294" s="5">
         <v>194</v>
@@ -11509,7 +11510,7 @@
     </row>
     <row r="295" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B295" s="5">
         <v>198</v>
@@ -11541,7 +11542,7 @@
     </row>
     <row r="296" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B296" s="5">
         <v>204</v>
@@ -11573,7 +11574,7 @@
     </row>
     <row r="297" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B297" s="5">
         <v>210</v>
@@ -11605,7 +11606,7 @@
     </row>
     <row r="298" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B298" s="5">
         <v>216</v>
@@ -11637,7 +11638,7 @@
     </row>
     <row r="299" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B299" s="5">
         <v>222</v>
@@ -11669,7 +11670,7 @@
     </row>
     <row r="300" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B300" s="5">
         <v>228</v>
@@ -11701,7 +11702,7 @@
     </row>
     <row r="301" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B301" s="5">
         <v>234</v>
@@ -11733,7 +11734,7 @@
     </row>
     <row r="302" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B302" s="5">
         <v>240</v>
@@ -11765,7 +11766,7 @@
     </row>
     <row r="303" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B303" s="5">
         <v>246</v>
@@ -11797,7 +11798,7 @@
     </row>
     <row r="304" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B304" s="5">
         <v>252</v>
@@ -11829,7 +11830,7 @@
     </row>
     <row r="305" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B305" s="5">
         <v>258</v>
@@ -11861,7 +11862,7 @@
     </row>
     <row r="306" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B306" s="5">
         <v>266</v>
@@ -11893,7 +11894,7 @@
     </row>
     <row r="307" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B307" s="5">
         <v>274</v>
@@ -11925,7 +11926,7 @@
     </row>
     <row r="308" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B308" s="5">
         <v>282</v>
@@ -11957,7 +11958,7 @@
     </row>
     <row r="309" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B309" s="5">
         <v>290</v>
@@ -11989,7 +11990,7 @@
     </row>
     <row r="310" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B310" s="5">
         <v>298</v>
@@ -12021,7 +12022,7 @@
     </row>
     <row r="311" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B311" s="5">
         <v>306</v>
@@ -12053,7 +12054,7 @@
     </row>
     <row r="312" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B312" s="5">
         <v>314</v>
@@ -12085,7 +12086,7 @@
     </row>
     <row r="313" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B313" s="5">
         <v>322</v>
@@ -12117,7 +12118,7 @@
     </row>
     <row r="314" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B314" s="5">
         <v>330</v>
@@ -12149,7 +12150,7 @@
     </row>
     <row r="315" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B315" s="5">
         <v>338</v>
@@ -12181,7 +12182,7 @@
     </row>
     <row r="316" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B316" s="5">
         <v>347</v>
@@ -12213,7 +12214,7 @@
     </row>
     <row r="317" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B317" s="5">
         <v>356</v>
@@ -12245,7 +12246,7 @@
     </row>
     <row r="318" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B318" s="5">
         <v>365</v>
@@ -12277,7 +12278,7 @@
     </row>
     <row r="319" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B319" s="5">
         <v>374</v>
@@ -12309,7 +12310,7 @@
     </row>
     <row r="320" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B320" s="5">
         <v>383</v>
@@ -12341,7 +12342,7 @@
     </row>
     <row r="321" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B321" s="5">
         <v>392</v>
@@ -12373,7 +12374,7 @@
     </row>
     <row r="322" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B322" s="5">
         <v>401</v>
@@ -12405,7 +12406,7 @@
     </row>
     <row r="323" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B323" s="5">
         <v>410</v>
@@ -12437,7 +12438,7 @@
     </row>
     <row r="324" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B324" s="5">
         <v>419</v>
@@ -12469,7 +12470,7 @@
     </row>
     <row r="325" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B325" s="5">
         <v>428</v>
@@ -12501,7 +12502,7 @@
     </row>
     <row r="326" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A326" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B326" s="5">
         <v>439</v>
@@ -12533,7 +12534,7 @@
     </row>
     <row r="327" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A327" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B327" s="5">
         <v>450</v>
@@ -12565,7 +12566,7 @@
     </row>
     <row r="328" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B328" s="5">
         <v>461</v>
@@ -12597,7 +12598,7 @@
     </row>
     <row r="329" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B329" s="5">
         <v>472</v>
@@ -12629,7 +12630,7 @@
     </row>
     <row r="330" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B330" s="5">
         <v>483</v>
@@ -12661,7 +12662,7 @@
     </row>
     <row r="331" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B331" s="5">
         <v>494</v>
@@ -12693,7 +12694,7 @@
     </row>
     <row r="332" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B332" s="5">
         <v>505</v>
@@ -12725,7 +12726,7 @@
     </row>
     <row r="333" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B333" s="5">
         <v>516</v>
@@ -12757,7 +12758,7 @@
     </row>
     <row r="334" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B334" s="5">
         <v>527</v>
@@ -12789,7 +12790,7 @@
     </row>
     <row r="335" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B335" s="5">
         <v>538</v>
@@ -12821,7 +12822,7 @@
     </row>
     <row r="336" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B336" s="5">
         <v>550</v>
@@ -12853,7 +12854,7 @@
     </row>
     <row r="337" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B337" s="5">
         <v>562</v>
@@ -12885,7 +12886,7 @@
     </row>
     <row r="338" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B338" s="5">
         <v>574</v>
@@ -12917,7 +12918,7 @@
     </row>
     <row r="339" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B339" s="5">
         <v>586</v>
@@ -12949,7 +12950,7 @@
     </row>
     <row r="340" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B340" s="5">
         <v>598</v>
@@ -12981,7 +12982,7 @@
     </row>
     <row r="341" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B341" s="5">
         <v>610</v>
@@ -13013,7 +13014,7 @@
     </row>
     <row r="342" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B342" s="5">
         <v>622</v>
@@ -13045,7 +13046,7 @@
     </row>
     <row r="343" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B343" s="5">
         <v>634</v>
@@ -13077,7 +13078,7 @@
     </row>
     <row r="344" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B344" s="5">
         <v>646</v>
@@ -13109,7 +13110,7 @@
     </row>
     <row r="345" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B345" s="5">
         <v>658</v>
@@ -13141,7 +13142,7 @@
     </row>
     <row r="346" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B346" s="5">
         <v>674</v>
@@ -13173,7 +13174,7 @@
     </row>
     <row r="347" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B347" s="5">
         <v>690</v>
@@ -13205,7 +13206,7 @@
     </row>
     <row r="348" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B348" s="5">
         <v>706</v>
@@ -13237,7 +13238,7 @@
     </row>
     <row r="349" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A349" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B349" s="5">
         <v>722</v>
@@ -13269,7 +13270,7 @@
     </row>
     <row r="350" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A350" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B350" s="5">
         <v>738</v>
@@ -13301,7 +13302,7 @@
     </row>
     <row r="351" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B351" s="5">
         <v>754</v>
@@ -13333,7 +13334,7 @@
     </row>
     <row r="352" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B352" s="5">
         <v>770</v>
@@ -13365,7 +13366,7 @@
     </row>
     <row r="353" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A353" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B353" s="5">
         <v>786</v>
@@ -13397,7 +13398,7 @@
     </row>
     <row r="354" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B354" s="5">
         <v>802</v>
@@ -13429,7 +13430,7 @@
     </row>
     <row r="355" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B355" s="5">
         <v>818</v>
@@ -13461,7 +13462,7 @@
     </row>
     <row r="356" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B356" s="5">
         <v>837</v>
@@ -13493,7 +13494,7 @@
     </row>
     <row r="357" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B357" s="5">
         <v>856</v>
@@ -13525,7 +13526,7 @@
     </row>
     <row r="358" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B358" s="5">
         <v>875</v>
@@ -13557,7 +13558,7 @@
     </row>
     <row r="359" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B359" s="5">
         <v>894</v>
@@ -13589,7 +13590,7 @@
     </row>
     <row r="360" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B360" s="5">
         <v>913</v>
@@ -13621,7 +13622,7 @@
     </row>
     <row r="361" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B361" s="5">
         <v>932</v>
@@ -13653,7 +13654,7 @@
     </row>
     <row r="362" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B362" s="5">
         <v>951</v>
@@ -13685,7 +13686,7 @@
     </row>
     <row r="363" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B363" s="5">
         <v>970</v>
@@ -13717,7 +13718,7 @@
     </row>
     <row r="364" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B364" s="5">
         <v>989</v>
@@ -13749,7 +13750,7 @@
     </row>
     <row r="365" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B365" s="5">
         <v>1008</v>
@@ -13781,7 +13782,7 @@
     </row>
     <row r="366" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B366" s="5">
         <v>1032</v>
@@ -13813,7 +13814,7 @@
     </row>
     <row r="367" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B367" s="5">
         <v>1056</v>
@@ -13845,7 +13846,7 @@
     </row>
     <row r="368" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B368" s="5">
         <v>1080</v>
@@ -13877,7 +13878,7 @@
     </row>
     <row r="369" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A369" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B369" s="5">
         <v>1104</v>
@@ -13909,7 +13910,7 @@
     </row>
     <row r="370" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B370" s="5">
         <v>1128</v>
@@ -13941,7 +13942,7 @@
     </row>
     <row r="371" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B371" s="5">
         <v>1152</v>
@@ -13973,7 +13974,7 @@
     </row>
     <row r="372" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B372" s="5">
         <v>1176</v>
@@ -14005,7 +14006,7 @@
     </row>
     <row r="373" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B373" s="5">
         <v>1200</v>
@@ -14037,7 +14038,7 @@
     </row>
     <row r="374" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A374" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B374" s="5">
         <v>1224</v>
@@ -14069,7 +14070,7 @@
     </row>
     <row r="375" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A375" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B375" s="5">
         <v>1248</v>
@@ -14101,7 +14102,7 @@
     </row>
     <row r="376" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A376" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B376" s="5">
         <v>1280</v>
@@ -14133,7 +14134,7 @@
     </row>
     <row r="377" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A377" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B377" s="5">
         <v>1312</v>
@@ -14165,7 +14166,7 @@
     </row>
     <row r="378" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A378" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B378" s="5">
         <v>1344</v>
@@ -14197,7 +14198,7 @@
     </row>
     <row r="379" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A379" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B379" s="5">
         <v>1376</v>
@@ -14229,7 +14230,7 @@
     </row>
     <row r="380" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A380" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B380" s="5">
         <v>1408</v>
@@ -14261,7 +14262,7 @@
     </row>
     <row r="381" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A381" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B381" s="5">
         <v>1440</v>
@@ -14293,7 +14294,7 @@
     </row>
     <row r="382" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A382" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B382" s="5">
         <v>1472</v>
@@ -14325,7 +14326,7 @@
     </row>
     <row r="383" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A383" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B383" s="5">
         <v>1504</v>
@@ -14357,7 +14358,7 @@
     </row>
     <row r="384" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A384" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B384" s="5">
         <v>1536</v>
@@ -14389,7 +14390,7 @@
     </row>
     <row r="385" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B385" s="5">
         <v>1568</v>
@@ -14421,7 +14422,7 @@
     </row>
     <row r="386" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A386" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B386" s="5">
         <v>1600</v>
@@ -14453,7 +14454,7 @@
     </row>
     <row r="387" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A387" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B387" s="5">
         <v>1632</v>
@@ -14485,7 +14486,7 @@
     </row>
     <row r="388" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A388" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B388" s="5">
         <v>1664</v>
@@ -14517,7 +14518,7 @@
     </row>
     <row r="389" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A389" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B389" s="5">
         <v>1696</v>
@@ -14549,7 +14550,7 @@
     </row>
     <row r="390" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A390" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B390" s="5">
         <v>1728</v>
@@ -14581,7 +14582,7 @@
     </row>
     <row r="391" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B391" s="5">
         <v>1760</v>
@@ -14613,7 +14614,7 @@
     </row>
     <row r="392" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A392" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B392" s="5">
         <v>1792</v>
@@ -14645,7 +14646,7 @@
     </row>
     <row r="393" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A393" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B393" s="5">
         <v>1824</v>
@@ -14677,7 +14678,7 @@
     </row>
     <row r="394" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B394" s="5">
         <v>1856</v>
@@ -14709,7 +14710,7 @@
     </row>
     <row r="395" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A395" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B395" s="5">
         <v>1888</v>
@@ -14741,7 +14742,7 @@
     </row>
     <row r="396" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B396" s="4">
         <v>0</v>
@@ -14773,7 +14774,7 @@
     </row>
     <row r="397" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A397" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B397" s="4">
         <v>114</v>
@@ -14805,7 +14806,7 @@
     </row>
     <row r="398" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A398" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B398" s="4">
         <v>118</v>
@@ -14837,7 +14838,7 @@
     </row>
     <row r="399" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A399" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B399" s="4">
         <v>122</v>
@@ -14869,7 +14870,7 @@
     </row>
     <row r="400" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A400" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B400" s="4">
         <v>126</v>
@@ -14901,7 +14902,7 @@
     </row>
     <row r="401" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A401" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B401" s="4">
         <v>130</v>
@@ -14933,7 +14934,7 @@
     </row>
     <row r="402" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A402" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B402" s="4">
         <v>134</v>
@@ -14965,7 +14966,7 @@
     </row>
     <row r="403" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A403" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B403" s="4">
         <v>138</v>
@@ -14997,7 +14998,7 @@
     </row>
     <row r="404" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A404" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B404" s="4">
         <v>142</v>
@@ -15029,7 +15030,7 @@
     </row>
     <row r="405" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A405" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B405" s="4">
         <v>146</v>
@@ -15061,7 +15062,7 @@
     </row>
     <row r="406" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B406" s="4">
         <v>150</v>
@@ -15093,7 +15094,7 @@
     </row>
     <row r="407" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A407" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B407" s="4">
         <v>155</v>
@@ -15125,7 +15126,7 @@
     </row>
     <row r="408" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B408" s="4">
         <v>160</v>
@@ -15157,7 +15158,7 @@
     </row>
     <row r="409" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A409" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B409" s="4">
         <v>165</v>
@@ -15189,7 +15190,7 @@
     </row>
     <row r="410" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A410" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B410" s="4">
         <v>170</v>
@@ -15221,7 +15222,7 @@
     </row>
     <row r="411" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A411" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B411" s="4">
         <v>175</v>
@@ -15253,7 +15254,7 @@
     </row>
     <row r="412" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B412" s="4">
         <v>180</v>
@@ -15285,7 +15286,7 @@
     </row>
     <row r="413" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A413" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B413" s="4">
         <v>185</v>
@@ -15317,7 +15318,7 @@
     </row>
     <row r="414" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A414" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B414" s="4">
         <v>190</v>
@@ -15349,7 +15350,7 @@
     </row>
     <row r="415" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A415" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B415" s="4">
         <v>195</v>
@@ -15381,7 +15382,7 @@
     </row>
     <row r="416" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A416" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B416" s="4">
         <v>200</v>
@@ -15413,7 +15414,7 @@
     </row>
     <row r="417" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A417" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B417" s="4">
         <v>206</v>
@@ -15445,7 +15446,7 @@
     </row>
     <row r="418" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A418" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B418" s="5">
         <v>212</v>
@@ -15477,7 +15478,7 @@
     </row>
     <row r="419" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A419" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B419" s="5">
         <v>218</v>
@@ -15509,7 +15510,7 @@
     </row>
     <row r="420" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A420" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B420" s="5">
         <v>224</v>
@@ -15541,7 +15542,7 @@
     </row>
     <row r="421" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A421" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B421" s="5">
         <v>230</v>
@@ -15573,7 +15574,7 @@
     </row>
     <row r="422" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A422" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B422" s="5">
         <v>236</v>
@@ -15605,7 +15606,7 @@
     </row>
     <row r="423" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A423" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B423" s="5">
         <v>242</v>
@@ -15637,7 +15638,7 @@
     </row>
     <row r="424" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B424" s="5">
         <v>248</v>
@@ -15669,7 +15670,7 @@
     </row>
     <row r="425" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A425" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B425" s="5">
         <v>254</v>
@@ -15701,7 +15702,7 @@
     </row>
     <row r="426" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A426" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B426" s="5">
         <v>260</v>
@@ -15733,7 +15734,7 @@
     </row>
     <row r="427" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A427" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B427" s="5">
         <v>268</v>
@@ -15765,7 +15766,7 @@
     </row>
     <row r="428" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A428" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B428" s="5">
         <v>276</v>
@@ -15797,7 +15798,7 @@
     </row>
     <row r="429" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A429" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B429" s="5">
         <v>284</v>
@@ -15829,7 +15830,7 @@
     </row>
     <row r="430" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A430" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B430" s="5">
         <v>292</v>
@@ -15861,7 +15862,7 @@
     </row>
     <row r="431" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A431" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B431" s="5">
         <v>300</v>
@@ -15893,7 +15894,7 @@
     </row>
     <row r="432" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A432" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B432" s="5">
         <v>308</v>
@@ -15925,7 +15926,7 @@
     </row>
     <row r="433" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A433" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B433" s="5">
         <v>316</v>
@@ -15957,7 +15958,7 @@
     </row>
     <row r="434" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A434" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B434" s="5">
         <v>324</v>
@@ -15989,7 +15990,7 @@
     </row>
     <row r="435" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A435" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B435" s="5">
         <v>332</v>
@@ -16021,7 +16022,7 @@
     </row>
     <row r="436" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A436" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B436" s="5">
         <v>340</v>
@@ -16053,7 +16054,7 @@
     </row>
     <row r="437" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A437" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B437" s="5">
         <v>350</v>
@@ -16085,7 +16086,7 @@
     </row>
     <row r="438" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A438" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B438" s="5">
         <v>360</v>
@@ -16117,7 +16118,7 @@
     </row>
     <row r="439" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A439" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B439" s="5">
         <v>370</v>
@@ -16149,7 +16150,7 @@
     </row>
     <row r="440" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A440" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B440" s="5">
         <v>380</v>
@@ -16181,7 +16182,7 @@
     </row>
     <row r="441" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A441" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B441" s="5">
         <v>390</v>
@@ -16213,7 +16214,7 @@
     </row>
     <row r="442" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A442" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B442" s="5">
         <v>400</v>
@@ -16245,7 +16246,7 @@
     </row>
     <row r="443" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A443" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B443" s="5">
         <v>410</v>
@@ -16277,7 +16278,7 @@
     </row>
     <row r="444" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A444" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B444" s="5">
         <v>420</v>
@@ -16309,7 +16310,7 @@
     </row>
     <row r="445" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A445" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B445" s="5">
         <v>430</v>
@@ -16341,7 +16342,7 @@
     </row>
     <row r="446" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A446" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B446" s="5">
         <v>440</v>
@@ -16373,7 +16374,7 @@
     </row>
     <row r="447" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A447" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B447" s="5">
         <v>452</v>
@@ -16405,7 +16406,7 @@
     </row>
     <row r="448" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A448" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B448" s="5">
         <v>464</v>
@@ -16437,7 +16438,7 @@
     </row>
     <row r="449" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A449" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B449" s="5">
         <v>476</v>
@@ -16469,7 +16470,7 @@
     </row>
     <row r="450" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A450" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B450" s="5">
         <v>488</v>
@@ -16501,7 +16502,7 @@
     </row>
     <row r="451" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A451" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B451" s="5">
         <v>500</v>
@@ -16533,7 +16534,7 @@
     </row>
     <row r="452" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A452" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B452" s="5">
         <v>512</v>
@@ -16565,7 +16566,7 @@
     </row>
     <row r="453" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A453" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B453" s="5">
         <v>524</v>
@@ -16597,7 +16598,7 @@
     </row>
     <row r="454" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A454" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B454" s="5">
         <v>536</v>
@@ -16629,7 +16630,7 @@
     </row>
     <row r="455" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A455" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B455" s="5">
         <v>548</v>
@@ -16661,7 +16662,7 @@
     </row>
     <row r="456" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A456" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B456" s="5">
         <v>560</v>
@@ -16693,7 +16694,7 @@
     </row>
     <row r="457" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A457" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B457" s="5">
         <v>574</v>
@@ -16725,7 +16726,7 @@
     </row>
     <row r="458" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A458" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B458" s="5">
         <v>588</v>
@@ -16757,7 +16758,7 @@
     </row>
     <row r="459" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A459" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B459" s="5">
         <v>602</v>
@@ -16789,7 +16790,7 @@
     </row>
     <row r="460" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A460" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B460" s="5">
         <v>616</v>
@@ -16821,7 +16822,7 @@
     </row>
     <row r="461" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A461" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B461" s="5">
         <v>630</v>
@@ -16853,7 +16854,7 @@
     </row>
     <row r="462" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A462" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B462" s="5">
         <v>644</v>
@@ -16885,7 +16886,7 @@
     </row>
     <row r="463" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A463" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B463" s="5">
         <v>658</v>
@@ -16917,7 +16918,7 @@
     </row>
     <row r="464" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A464" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B464" s="5">
         <v>672</v>
@@ -16949,7 +16950,7 @@
     </row>
     <row r="465" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A465" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B465" s="5">
         <v>686</v>
@@ -16981,7 +16982,7 @@
     </row>
     <row r="466" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A466" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B466" s="5">
         <v>700</v>
@@ -17013,7 +17014,7 @@
     </row>
     <row r="467" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A467" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B467" s="5">
         <v>716</v>
@@ -17045,7 +17046,7 @@
     </row>
     <row r="468" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A468" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B468" s="5">
         <v>732</v>
@@ -17077,7 +17078,7 @@
     </row>
     <row r="469" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A469" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B469" s="5">
         <v>748</v>
@@ -17109,7 +17110,7 @@
     </row>
     <row r="470" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A470" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B470" s="5">
         <v>764</v>
@@ -17141,7 +17142,7 @@
     </row>
     <row r="471" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A471" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B471" s="5">
         <v>780</v>
@@ -17173,7 +17174,7 @@
     </row>
     <row r="472" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A472" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B472" s="5">
         <v>796</v>
@@ -17205,7 +17206,7 @@
     </row>
     <row r="473" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A473" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B473" s="5">
         <v>812</v>
@@ -17237,7 +17238,7 @@
     </row>
     <row r="474" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A474" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B474" s="5">
         <v>828</v>
@@ -17269,7 +17270,7 @@
     </row>
     <row r="475" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B475" s="5">
         <v>844</v>
@@ -17301,7 +17302,7 @@
     </row>
     <row r="476" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B476" s="5">
         <v>860</v>
@@ -17333,7 +17334,7 @@
     </row>
     <row r="477" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B477" s="5">
         <v>880</v>
@@ -17365,7 +17366,7 @@
     </row>
     <row r="478" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A478" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B478" s="5">
         <v>900</v>
@@ -17397,7 +17398,7 @@
     </row>
     <row r="479" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A479" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B479" s="5">
         <v>920</v>
@@ -17429,7 +17430,7 @@
     </row>
     <row r="480" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A480" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B480" s="5">
         <v>940</v>
@@ -17461,7 +17462,7 @@
     </row>
     <row r="481" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A481" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B481" s="5">
         <v>960</v>
@@ -17493,7 +17494,7 @@
     </row>
     <row r="482" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A482" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B482" s="5">
         <v>980</v>
@@ -17525,7 +17526,7 @@
     </row>
     <row r="483" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A483" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B483" s="5">
         <v>1000</v>
@@ -17557,7 +17558,7 @@
     </row>
     <row r="484" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A484" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B484" s="5">
         <v>1020</v>
@@ -17589,7 +17590,7 @@
     </row>
     <row r="485" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A485" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B485" s="5">
         <v>1040</v>
@@ -17621,7 +17622,7 @@
     </row>
     <row r="486" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A486" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B486" s="5">
         <v>1060</v>
@@ -17653,7 +17654,7 @@
     </row>
     <row r="487" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A487" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B487" s="5">
         <v>1084</v>
@@ -17685,7 +17686,7 @@
     </row>
     <row r="488" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A488" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B488" s="5">
         <v>1108</v>
@@ -17717,7 +17718,7 @@
     </row>
     <row r="489" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A489" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B489" s="5">
         <v>1132</v>
@@ -17749,7 +17750,7 @@
     </row>
     <row r="490" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A490" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B490" s="5">
         <v>1156</v>
@@ -17781,7 +17782,7 @@
     </row>
     <row r="491" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A491" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B491" s="5">
         <v>1180</v>
@@ -17813,7 +17814,7 @@
     </row>
     <row r="492" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A492" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B492" s="5">
         <v>1204</v>
@@ -17845,7 +17846,7 @@
     </row>
     <row r="493" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A493" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B493" s="5">
         <v>1228</v>
@@ -17877,7 +17878,7 @@
     </row>
     <row r="494" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A494" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B494" s="5">
         <v>1252</v>
@@ -17909,7 +17910,7 @@
     </row>
     <row r="495" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A495" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B495" s="5">
         <v>1276</v>
@@ -17941,7 +17942,7 @@
     </row>
     <row r="496" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B496" s="5">
         <v>1300</v>
@@ -17973,7 +17974,7 @@
     </row>
     <row r="497" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B497" s="5">
         <v>1330</v>
@@ -18005,7 +18006,7 @@
     </row>
     <row r="498" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B498" s="5">
         <v>1360</v>
@@ -18037,7 +18038,7 @@
     </row>
     <row r="499" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B499" s="5">
         <v>1390</v>
@@ -18069,7 +18070,7 @@
     </row>
     <row r="500" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B500" s="5">
         <v>1420</v>
@@ -18101,7 +18102,7 @@
     </row>
     <row r="501" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B501" s="5">
         <v>1450</v>
@@ -18133,7 +18134,7 @@
     </row>
     <row r="502" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A502" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B502" s="5">
         <v>1480</v>
@@ -18165,7 +18166,7 @@
     </row>
     <row r="503" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A503" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B503" s="5">
         <v>1510</v>
@@ -18197,7 +18198,7 @@
     </row>
     <row r="504" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A504" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B504" s="5">
         <v>1540</v>
@@ -18229,7 +18230,7 @@
     </row>
     <row r="505" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A505" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B505" s="5">
         <v>1570</v>
@@ -18261,7 +18262,7 @@
     </row>
     <row r="506" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A506" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B506" s="5">
         <v>1600</v>
@@ -18293,7 +18294,7 @@
     </row>
     <row r="507" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A507" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B507" s="5">
         <v>1640</v>
@@ -18325,7 +18326,7 @@
     </row>
     <row r="508" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A508" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B508" s="5">
         <v>1680</v>
@@ -18357,7 +18358,7 @@
     </row>
     <row r="509" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A509" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B509" s="5">
         <v>1720</v>
@@ -18389,7 +18390,7 @@
     </row>
     <row r="510" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A510" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B510" s="5">
         <v>1760</v>
@@ -18421,7 +18422,7 @@
     </row>
     <row r="511" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A511" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B511" s="5">
         <v>1800</v>
@@ -18453,7 +18454,7 @@
     </row>
     <row r="512" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A512" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B512" s="5">
         <v>1840</v>
@@ -18485,7 +18486,7 @@
     </row>
     <row r="513" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A513" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B513" s="5">
         <v>1880</v>
@@ -18517,7 +18518,7 @@
     </row>
     <row r="514" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A514" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B514" s="5">
         <v>1920</v>
@@ -18549,7 +18550,7 @@
     </row>
     <row r="515" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A515" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B515" s="5">
         <v>1960</v>
@@ -18581,7 +18582,7 @@
     </row>
     <row r="516" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A516" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B516" s="5">
         <v>2000</v>
@@ -18613,7 +18614,7 @@
     </row>
     <row r="517" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A517" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B517" s="5">
         <v>2040</v>
@@ -18645,7 +18646,7 @@
     </row>
     <row r="518" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A518" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B518" s="5">
         <v>2080</v>
@@ -18677,7 +18678,7 @@
     </row>
     <row r="519" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A519" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B519" s="5">
         <v>2120</v>
@@ -18709,7 +18710,7 @@
     </row>
     <row r="520" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A520" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B520" s="5">
         <v>2160</v>
@@ -18741,7 +18742,7 @@
     </row>
     <row r="521" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A521" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B521" s="5">
         <v>2200</v>
@@ -18773,7 +18774,7 @@
     </row>
     <row r="522" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A522" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B522" s="5">
         <v>2240</v>
@@ -18805,7 +18806,7 @@
     </row>
     <row r="523" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A523" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B523" s="5">
         <v>2280</v>
@@ -18837,7 +18838,7 @@
     </row>
     <row r="524" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A524" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B524" s="5">
         <v>2320</v>
@@ -18869,7 +18870,7 @@
     </row>
     <row r="525" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A525" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B525" s="5">
         <v>2360</v>
@@ -18901,7 +18902,7 @@
     </row>
     <row r="526" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A526" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B526" s="5">
         <v>2400</v>
@@ -20308,7 +20309,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
